--- a/PROYECTO MR/IPS/IPS - [MR 2.0] - [Obtener Orden de Pago].xlsx
+++ b/PROYECTO MR/IPS/IPS - [MR 2.0] - [Obtener Orden de Pago].xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B9EE7-1E53-41EE-AFFD-B37FC7FBCDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88A753C-85B4-4486-BDD1-716A8347CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="670" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="observaciones" sheetId="131" r:id="rId1"/>
-    <sheet name="Ejemplo" sheetId="33" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId3"/>
-    <sheet name="01" sheetId="35" r:id="rId4"/>
-    <sheet name="04" sheetId="132" r:id="rId5"/>
+    <sheet name="Ejemplo" sheetId="33" r:id="rId1"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="01" sheetId="35" r:id="rId3"/>
+    <sheet name="02" sheetId="133" r:id="rId4"/>
+    <sheet name="03" sheetId="134" r:id="rId5"/>
+    <sheet name="04 05 06" sheetId="132" r:id="rId6"/>
+    <sheet name="07 08 09" sheetId="135" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATOS!$A$25:$H$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ejemplo!$B$3:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATOS!$A$25:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ejemplo!$B$3:$G$4</definedName>
     <definedName name="Caracteristica_Evaluar">#REF!</definedName>
     <definedName name="Componentes">#REF!</definedName>
     <definedName name="Estado_CP">#REF!</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>CASOS DE PRUEBA</t>
   </si>
@@ -393,12 +395,6 @@
     <t xml:space="preserve">La pasarela de pagos genera y devuelve el CPB </t>
   </si>
   <si>
-    <t>El sistema no genera el documento CPB, al transmitir una solicitud.</t>
-  </si>
-  <si>
-    <t>Al transmitir a la pasarela de pago, no se puede validar la recepción de la notificación</t>
-  </si>
-  <si>
     <t xml:space="preserve">El sistema guarda los datos del CPB </t>
   </si>
   <si>
@@ -440,16 +436,60 @@
   <si>
     <t>- Fecha Actualización</t>
   </si>
+  <si>
+    <t xml:space="preserve">No se haya obtenido el número de CPB  - No se haya podido generar el CPB exitosamente. </t>
+  </si>
+  <si>
+    <t>Disparo automatico del Job</t>
+  </si>
+  <si>
+    <t>El sistema realiza el reintento de envío de las solicitudes de CPB guardadas en estado "pendiente"</t>
+  </si>
+  <si>
+    <t>Actualizar la fecha de actualización de cada solicitud de CPB reenviada</t>
+  </si>
+  <si>
+    <t>El estado de la solicitud CPB cambia a estado "enviada"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- La pasarela de pagos genera y devuelve el CPB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Actualiza el estado del requerimiento de pago de trámite a PENDIENTE( como estaba antes el requerimiento y en que estado?) </t>
+  </si>
+  <si>
+    <t>El estado de la solicitud CPB permanece en estado "Pendiente"</t>
+  </si>
+  <si>
+    <t>Tiene dependencia de los casos en estado no conforme</t>
+  </si>
+  <si>
+    <t>Se tiene error encontrado de recepcion de notificación y simular un error de no generación de CPB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,7 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,96 +801,116 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -858,27 +918,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -902,187 +944,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>113129</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>2956</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69BE041-DDEA-4047-BEA5-01AE2EFB7EF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6813176"/>
-          <a:ext cx="10781129" cy="4429280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>7552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A851A3-E3AE-4C58-87EC-A5AE80D68F85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="986117"/>
-          <a:ext cx="10677525" cy="5307935"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>753856</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>49007</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1876A8-BBB7-498A-8A49-C745FD7B6D05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12830735"/>
-          <a:ext cx="9897856" cy="5887272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>554973</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>57590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413E55E4-2915-47AD-983E-1DA5D0FF18EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="19173264"/>
-          <a:ext cx="18080973" cy="7173326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1180,7 +1041,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2696,25 +2557,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>93058</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>283233</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>49298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42">
+        <xdr:cNvPr id="40" name="Imagen 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6B2642-702D-4D8B-A43F-AE3F21A21125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB219E9C-D80D-443C-B306-82E5B299A88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,21 +2589,3010 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37621558"/>
-          <a:ext cx="11713233" cy="4647031"/>
+          <a:off x="0" y="33931412"/>
+          <a:ext cx="11049000" cy="3265386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98059</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92724</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>58959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD093C3-0D06-4655-9680-42F2F354F96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98059" y="28485353"/>
+          <a:ext cx="9900665" cy="4911106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>151208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C421D3-48A9-42EA-BEA1-F84E96D8D445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22512617"/>
+          <a:ext cx="10656794" cy="5261091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>80216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988D38BF-6703-4A66-BBF5-50EF0D1DCE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="235323" y="16463216"/>
+          <a:ext cx="10197353" cy="5034273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>116533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111EF732-7821-4A91-BF5F-C05DF727E3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12281647"/>
+          <a:ext cx="11049000" cy="3265386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>184825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C521E363-EEA8-4194-9F61-D19F83ECDE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6353734"/>
+          <a:ext cx="10656794" cy="5261091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133967</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6055D92C-C75A-4D43-A27A-F6DC454DF218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="785360"/>
+          <a:ext cx="10801967" cy="5288228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254E27E4-8963-49F3-B9E5-02E0084BB995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="3876675"/>
+          <a:ext cx="990600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9739FB-3E47-4200-AB12-F083E491BFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18361040">
+          <a:off x="4041500" y="4226202"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20F0E4D-36C7-4F9F-B44B-64B95A04B02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239124" y="10658474"/>
+          <a:ext cx="2600325" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>149501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF1884E-8815-47C5-B878-07BB99C11157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8474154">
+          <a:off x="9661249" y="10036451"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8CAE7A-BB99-496D-89A1-CBEAF196DD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428749" y="8639175"/>
+          <a:ext cx="8629651" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>193399</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECC745C-3DC6-4BAA-BF78-54B357FCC446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10099399" y="8521976"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415372</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF9ACF1-56B8-4FE7-9A97-2FAF78D94F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9559372" y="13806693"/>
+          <a:ext cx="843584" cy="762416"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549552</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>136672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>378102</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>168973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF08495D-BAD4-43B7-8C1F-2A5EA4A4DF40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9591676" y="13002048"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897ABD67-46EE-40EE-BD7A-199011ADF92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922065" y="17310652"/>
+          <a:ext cx="877957" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>703192</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>126724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09364F1-CB6C-4EFB-89F7-D421B7BCBA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20007020">
+          <a:off x="5242891" y="17633674"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>351182</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7452B500-9432-4ADE-ABEA-01C710385F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7209182" y="17297400"/>
+          <a:ext cx="1205948" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616224</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>96907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15084B5-40E1-459F-B6BA-6503FE847B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20007020">
+          <a:off x="6712224" y="17603857"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B790BED4-A7B7-4E7D-A1F5-31E053B63924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="24740152"/>
+          <a:ext cx="1515717" cy="405848"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628648</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E217F8C5-2433-4739-967E-B75FA9EA46F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8842071">
+          <a:off x="7454347" y="24102390"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>49693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>745433</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2482B8D2-039D-4B82-AD5A-1083FFFF25A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590260" y="31482193"/>
+          <a:ext cx="4489173" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73714</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>110159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2DC55B-54C5-4368-B304-219B9061934C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6137413" y="31333109"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C681A4B-8086-4DA5-8ECA-8D8F805F5CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7123044" y="35548957"/>
+          <a:ext cx="1432892" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248479</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280780</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>52181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB7A5BB-8FE4-4B68-8A2F-B679B6B5A2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19983407">
+          <a:off x="6344479" y="35847131"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>326573</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>188924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62B7336-23AF-4915-BCDA-E8747C695963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40823" y="33977036"/>
+          <a:ext cx="10953750" cy="3549888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>96474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187448</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>102858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F801C73D-44E2-48D2-9493-C98F5F7F088C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74543" y="28480974"/>
+          <a:ext cx="10018905" cy="4959384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>739590</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>40292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C199BBFB-D525-4669-A37F-189AA7E8CCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134472" y="22669501"/>
+          <a:ext cx="10511118" cy="5183791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>140405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D016A3-BFBE-4BBA-BBE5-9309E51A429B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16427824"/>
+          <a:ext cx="10555941" cy="5239081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>58607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>128494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6587FA91-7998-407B-8ACC-F60AECB9CF14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504265" y="12250607"/>
+          <a:ext cx="10208559" cy="3308387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605119</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>93590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255F530A-A052-406F-BF11-4D84D1A0AAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="6530299"/>
+          <a:ext cx="10511118" cy="5183791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>668785</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3146E1-92A1-497D-AD80-322AC0B09F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78441" y="871124"/>
+          <a:ext cx="10496344" cy="5157639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A42B01-0271-4B5C-B031-63033A1EA62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="3876675"/>
+          <a:ext cx="990600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC90E96B-F54C-48AA-8ECE-0C752817C062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18361040">
+          <a:off x="4041500" y="4226202"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078F0BF7-60F2-4CF3-9864-77B30223B659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239124" y="10658474"/>
+          <a:ext cx="2600325" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>149501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2243DCC1-2363-4B3F-BA29-E990456FC4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8474154">
+          <a:off x="9661249" y="10036451"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBF4F95-7029-45C6-8067-7C743ED71525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428749" y="8639175"/>
+          <a:ext cx="8629651" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>193399</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D16CCEB-AE38-4EF0-96DA-798826951813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10099399" y="8521976"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415372</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF571B2-4F7E-414F-9E3B-06B0BC742088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9559372" y="13806693"/>
+          <a:ext cx="843584" cy="762416"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549552</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>136672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>378102</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>168973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43142A15-0676-4190-B9D6-C38CD97B3B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9591676" y="13002048"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331D05A9-BE1B-43B3-B57D-D236FEED2320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922065" y="17310652"/>
+          <a:ext cx="877957" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>703192</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>126724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384740B7-6436-4446-9E19-BCAA1943ECE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20007020">
+          <a:off x="5242891" y="17633674"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>351182</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B0788C-302D-40E6-9F28-16963FDD96CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7209182" y="17297400"/>
+          <a:ext cx="1205948" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616224</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>96907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EDC6FB-C080-47DB-9827-6B3C02619BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20007020">
+          <a:off x="6712224" y="17603857"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44935EE2-E10C-457B-A0CE-0287080D902E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="24740152"/>
+          <a:ext cx="1515717" cy="405848"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628648</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735206A5-F514-43D3-A95C-5653D8899DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8842071">
+          <a:off x="7454347" y="24102390"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>49693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>745433</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F3C86B-06EE-43C3-BD1B-6DC6C42982FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590260" y="31482193"/>
+          <a:ext cx="4489173" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73714</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>110159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5E1C8E-1F16-4EBF-9B9D-73A61699D7EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6137413" y="31333109"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectángulo redondeado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C13FF2D-3E30-4E1A-860E-5CE54C9583E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7123044" y="35548957"/>
+          <a:ext cx="1432892" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248479</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280780</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>52181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF8114-4236-4D34-936B-444ACE008260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19983407">
+          <a:off x="6344479" y="35847131"/>
+          <a:ext cx="794301" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2989,39 +5844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19064761-39B6-48FF-8A53-6682184EF5E4}">
-  <dimension ref="A3:A141"/>
-  <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD41BC88-8804-4EAC-86DA-1699D63A4B27}">
   <dimension ref="B3:H974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4080,12 +6907,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4101,16 +6928,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -4119,10 +6946,10 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
@@ -4134,10 +6961,10 @@
       <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="31" t="s">
         <v>46</v>
       </c>
@@ -4145,29 +6972,29 @@
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,59 +7003,59 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="19">
         <f>COUNTIF($G:$G,"CONFORME")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="19">
         <f>COUNTIF($G:$G,"NO CONFORME")</f>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="19">
         <f>COUNTIF($G:$G,"NO APLICA")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="19">
         <f>COUNTIF($G:$G,"PENDIENTE")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="19">
         <f>SUM(D18:F21)</f>
         <v>9</v>
@@ -4274,7 +7101,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -4295,7 +7122,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="9"/>
     </row>
@@ -4316,7 +7143,7 @@
         <v>32</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9"/>
     </row>
@@ -4337,9 +7164,11 @@
         <v>32</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
@@ -4358,9 +7187,11 @@
         <v>32</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
@@ -4379,9 +7210,11 @@
         <v>32</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
@@ -4400,9 +7233,11 @@
         <v>32</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
@@ -4421,9 +7256,11 @@
         <v>32</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
@@ -4442,9 +7279,11 @@
         <v>32</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5419,6 +8258,12 @@
   </sheetData>
   <autoFilter ref="A25:H34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E3:G4"/>
@@ -5426,14 +8271,8 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B26" location="'01'!A1" display="CP01" xr:uid="{74AC7D28-E3A7-4D5B-8AA0-604A0511FEA9}"/>
     <hyperlink ref="B27:B34" location="'2.1'!A1" display="CP2.1" xr:uid="{19611196-C70F-4E85-8D0A-701A7464B943}"/>
@@ -5466,15 +8305,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFE0CF2-CBA1-4575-ADF9-DFA312360ACF}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:Q217"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,13 +8335,13 @@
       <c r="B4" s="24"/>
     </row>
     <row r="21" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q21" s="43"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="24"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5528,7 +8367,7 @@
       <c r="B81" s="24"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5579,9 +8418,132 @@
       <c r="B194" s="22"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="43" t="s">
-        <v>53</v>
-      </c>
+      <c r="B195" s="35"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E914236-AAB4-4CDB-A984-F4B9111722FC}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:Q217"/>
+  <sheetViews>
+    <sheetView topLeftCell="A146" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N172" sqref="N171:N172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="35"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="24"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="22"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="22"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="35"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="22"/>
@@ -5594,14 +8556,139 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FB58F0-9933-43D4-9065-588565319FF0}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:Q217"/>
+  <sheetViews>
+    <sheetView topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q193" sqref="Q193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="35"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="24"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="22"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="22"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="35"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A885C842-A848-4692-90E0-C6EFEF9C5D53}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:Q216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5617,8 +8704,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
-        <v>60</v>
+      <c r="B3" s="35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -5626,65 +8713,70 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="Q13" s="43"/>
+      <c r="Q13" s="35"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="24"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="43"/>
+      <c r="B63" s="35"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="24"/>
@@ -5708,7 +8800,7 @@
       <c r="B80" s="24"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="42"/>
+      <c r="B82" s="34"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="24"/>
@@ -5732,7 +8824,7 @@
       <c r="B193" s="22"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="43"/>
+      <c r="B194" s="35"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="22"/>
@@ -5743,7 +8835,114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF77094-3571-4774-9968-AFFB378D4FAD}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="B2:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
@@ -5753,15 +8952,6 @@
     <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6026,20 +9216,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965534D7-8520-4EE0-9159-31E6ABCE19FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
     <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
